--- a/biology/Zoologie/Citioica/Citioica.xlsx
+++ b/biology/Zoologie/Citioica/Citioica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Citioica est un genre de lépidoptères (papillons) de la famille des Saturniidae et de la sous-famille des Ceratocampinae. Les espèces de ce genre vivent en Amérique centrale et du Sud.
 </t>
@@ -511,18 +523,20 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (17 janvier 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (17 janvier 2023) :
 Citioica anthonilis Boisduval, 1854
 Citioica guayensis Brechlin &amp; Meister, 2011
 Citioica homoea Rothschild, 1907	accepted
 Citioica rubrocanescens Brechlin &amp; Meister, 2011
-Selon NCBI  (17 janvier 2020)[2] :
+Selon NCBI  (17 janvier 2020) :
 Citioica anthonilis (Herrich-Schaffer, 1854)
 Citioica guayensis Brechlin &amp; Meister, 2011
 Citioica rubrocanescens Brechlin &amp; Meister, 2011
-Selon Saturniidae world[3] :
+Selon Saturniidae world :
 Citioica anthonilis (Herrich-Schaeffer, 1854)
 Citioica homoea (Rothschild, 1907)</t>
         </is>
@@ -552,7 +566,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Travassos &amp; Noronha, 1965 : « Adelocephalidae da coleção do Instituto Oswaldo Cruz organizada por Lauro Travassos. I Lepidoptera ». Atas da Sociedade de Biologia do Rio de Janeiro, vol. 9, no 4, p. 35-38.</t>
         </is>
